--- a/Student Version.xlsx
+++ b/Student Version.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basketball Game Sales" sheetId="1" r:id="rId1"/>
     <sheet name="Calories" sheetId="3" r:id="rId2"/>
+    <sheet name="Fee Schedule" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basketball Game Sales'!$A$1:$F$200</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="24">
   <si>
     <t>Item</t>
   </si>
@@ -93,6 +94,9 @@
   <si>
     <t>Calories</t>
   </si>
+  <si>
+    <t>Percent</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +140,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,7 +242,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -244,6 +255,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -298,18 +311,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -639,7 +641,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3679,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3829,4 +3831,118 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>